--- a/data/trans_media/Q23-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q23-Habitat-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 16,26</t>
+          <t>15,14; 16,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 16,42</t>
+          <t>15,12; 16,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 20,44</t>
+          <t>17,01; 20,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,5</t>
+          <t>16,72; 19,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,76; 17,06</t>
+          <t>15,78; 17,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,82; 17,04</t>
+          <t>15,79; 17,04</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 16,26</t>
+          <t>15,8; 16,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 16,73</t>
+          <t>15,98; 16,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,2</t>
+          <t>16,43; 17,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,4</t>
+          <t>17,04; 18,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 16,5</t>
+          <t>16,09; 16,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,13</t>
+          <t>16,4; 17,07</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,31; 17,03</t>
+          <t>16,31; 17,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 16,84</t>
+          <t>16,3; 16,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 18,08</t>
+          <t>17,09; 18,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,2; 18,22</t>
+          <t>17,22; 18,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 17,22</t>
+          <t>16,67; 17,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,24</t>
+          <t>16,74; 17,23</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 16,61</t>
+          <t>15,99; 16,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 16,81</t>
+          <t>16,15; 16,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,99</t>
+          <t>17,35; 18,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,84</t>
+          <t>16,86; 17,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 17,34</t>
+          <t>16,6; 17,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,54; 17,09</t>
+          <t>16,55; 17,16</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,63</t>
+          <t>16,15; 16,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,79</t>
+          <t>16,29; 16,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,93</t>
+          <t>16,96; 17,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,41; 18,65</t>
+          <t>17,36; 18,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,05</t>
+          <t>16,55; 17,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,46</t>
+          <t>16,85; 17,43</t>
         </is>
       </c>
     </row>
@@ -1039,22 +1039,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,19; 16,5</t>
+          <t>16,2; 16,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,61</t>
+          <t>16,32; 16,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,75</t>
+          <t>17,21; 17,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,95</t>
+          <t>17,4; 17,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,06</t>
+          <t>16,79; 17,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q23-Habitat-trans_media.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,14; 16,29</t>
+          <t>15,14; 16,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,12; 16,4</t>
+          <t>15,17; 16,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 20,21</t>
+          <t>16,97; 20,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,72; 19,52</t>
+          <t>16,8; 19,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 17,06</t>
+          <t>15,78; 17,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,79; 17,04</t>
+          <t>15,8; 17,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -724,34 +724,34 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,73</t>
+          <t>15,97; 16,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 17,2</t>
+          <t>16,4; 17,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 18,28</t>
+          <t>16,98; 18,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 16,49</t>
+          <t>16,08; 16,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 17,07</t>
+          <t>16,41; 17,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,31; 17,0</t>
+          <t>16,3; 17,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 16,84</t>
+          <t>16,3; 16,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 18,03</t>
+          <t>17,13; 18,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 18,21</t>
+          <t>17,21; 18,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,67; 17,23</t>
+          <t>16,65; 17,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,23</t>
+          <t>16,72; 17,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,22 +879,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 16,62</t>
+          <t>16,01; 16,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 16,81</t>
+          <t>16,17; 16,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 18,97</t>
+          <t>17,37; 19,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,93</t>
+          <t>16,89; 18,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,16</t>
+          <t>16,57; 17,17</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,15; 16,63</t>
+          <t>16,14; 16,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,82</t>
+          <t>16,28; 16,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,95</t>
+          <t>16,95; 17,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,36; 18,63</t>
+          <t>17,38; 18,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,05</t>
+          <t>16,55; 17,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,43</t>
+          <t>16,85; 17,45</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 16,49</t>
+          <t>16,2; 16,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,61</t>
+          <t>16,33; 16,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,78</t>
+          <t>17,21; 17,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,4; 17,96</t>
+          <t>17,4; 17,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,62; 16,89</t>
+          <t>16,63; 16,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,08</t>
+          <t>16,78; 17,06</t>
         </is>
       </c>
     </row>
